--- a/content/week4/C8_factorfriccion.xlsx
+++ b/content/week4/C8_factorfriccion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nelsonsasa07/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nasalazar/Documents/GitHub/ua-imec2001-hc-202220-s1/content/week4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE96738A-3FAA-654E-A3CA-1F2D3038E36B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8C7F64-51B2-0549-86E1-5A45F20ABBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14540" xr2:uid="{CC424A83-3C76-4743-A6B5-F176198D44FC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="25600" windowHeight="14540" xr2:uid="{CC424A83-3C76-4743-A6B5-F176198D44FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Iteraciones" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'Buscar Objetivo'!$F$10</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Iteraciones!$F$13</definedName>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">Solver!$D$14</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">Solver!$A$1</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
@@ -29,7 +29,7 @@
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
@@ -41,7 +41,7 @@
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">Solver!$D$14</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_lin" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
@@ -62,10 +62,10 @@
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'Buscar Objetivo'!$D$15</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Iteraciones!$H$13</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">Solver!$D$15</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">Solver!$A$1</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
@@ -115,10 +115,20 @@
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -201,9 +211,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -465,7 +475,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -550,16 +560,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -589,8 +599,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3216586" cy="1120115"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -632,6 +642,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -694,7 +705,7 @@
                                   <a:rPr lang="es-ES" sz="2000" b="0" i="1">
                                     <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
-                                  <m:t>-2∙</m:t>
+                                  <m:t>−2∙</m:t>
                                 </m:r>
                                 <m:func>
                                   <m:funcPr>
@@ -848,7 +859,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -950,8 +961,8 @@
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3087255" cy="740587"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -993,6 +1004,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1044,13 +1056,7 @@
                       <a:rPr lang="es-ES" sz="2000" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="es-ES" sz="2000" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>-2∙</m:t>
+                      <m:t>=−2∙</m:t>
                     </m:r>
                     <m:func>
                       <m:funcPr>
@@ -1190,7 +1196,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -1292,8 +1298,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3216586" cy="1120115"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -1335,6 +1341,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1397,7 +1404,7 @@
                                   <a:rPr lang="es-ES" sz="2000" b="0" i="1">
                                     <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
-                                  <m:t>-2∙</m:t>
+                                  <m:t>−2∙</m:t>
                                 </m:r>
                                 <m:func>
                                   <m:funcPr>
@@ -1551,7 +1558,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -1944,7 +1951,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -1958,7 +1965,7 @@
     <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1969,7 +1976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="34" t="s">
         <v>3</v>
       </c>
@@ -1981,7 +1988,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="34" t="s">
         <v>4</v>
       </c>
@@ -1992,7 +1999,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="34" t="s">
         <v>5</v>
       </c>
@@ -2003,7 +2010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="34" t="s">
         <v>6</v>
       </c>
@@ -2014,7 +2021,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="34" t="s">
         <v>7</v>
       </c>
@@ -2025,7 +2032,7 @@
         <v>2.09E-5</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="35" t="s">
         <v>8</v>
       </c>
@@ -2036,7 +2043,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="36" t="s">
         <v>13</v>
       </c>
@@ -2048,7 +2055,7 @@
         <v>278468.89952153113</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="36" t="s">
         <v>15</v>
       </c>
@@ -2072,7 +2079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F13" s="30">
         <v>0.9</v>
       </c>
@@ -2080,7 +2087,7 @@
       <c r="H13" s="32"/>
       <c r="I13" s="33"/>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="36" t="s">
         <v>18</v>
       </c>
@@ -2092,25 +2099,25 @@
       <c r="H14" s="32"/>
       <c r="I14" s="33"/>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F15" s="30"/>
       <c r="G15" s="28"/>
       <c r="H15" s="32"/>
       <c r="I15" s="33"/>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F16" s="30"/>
       <c r="G16" s="28"/>
       <c r="H16" s="32"/>
       <c r="I16" s="33"/>
     </row>
-    <row r="17" spans="6:9">
+    <row r="17" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F17" s="30"/>
       <c r="G17" s="28"/>
       <c r="H17" s="32"/>
       <c r="I17" s="33"/>
     </row>
-    <row r="18" spans="6:9">
+    <row r="18" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F18" s="30"/>
       <c r="G18" s="28"/>
       <c r="H18" s="32"/>
@@ -2128,7 +2135,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="20.5" style="1" bestFit="1" customWidth="1"/>
@@ -2141,7 +2148,7 @@
     <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2152,7 +2159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
@@ -2164,7 +2171,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
@@ -2175,7 +2182,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
@@ -2186,7 +2193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
@@ -2197,7 +2204,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
@@ -2208,7 +2215,7 @@
         <v>2.09E-5</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
@@ -2219,7 +2226,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F9" s="29" t="s">
         <v>16</v>
       </c>
@@ -2233,7 +2240,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
         <v>13</v>
       </c>
@@ -2249,7 +2256,7 @@
       <c r="H10" s="42"/>
       <c r="I10" s="39"/>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="12" t="s">
         <v>15</v>
       </c>
@@ -2273,7 +2280,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="20.5" style="1" bestFit="1" customWidth="1"/>
@@ -2282,7 +2289,7 @@
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2293,7 +2300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
@@ -2305,7 +2312,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
@@ -2316,7 +2323,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
@@ -2327,7 +2334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
@@ -2338,7 +2345,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
@@ -2349,7 +2356,7 @@
         <v>2.09E-5</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
@@ -2360,7 +2367,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
         <v>13</v>
       </c>
@@ -2372,7 +2379,7 @@
         <v>278468.89952153113</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" s="12" t="s">
         <v>15</v>
       </c>
@@ -2384,7 +2391,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" s="14" t="s">
         <v>16</v>
       </c>
@@ -2395,7 +2402,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>17</v>
       </c>
@@ -2404,16 +2411,16 @@
       </c>
       <c r="D15" s="24"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="22">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="20" t="s">
         <v>19</v>
       </c>

--- a/content/week4/C8_factorfriccion.xlsx
+++ b/content/week4/C8_factorfriccion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nasalazar/Documents/GitHub/ua-imec2001-hc-202220-s1/content/week4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8C7F64-51B2-0549-86E1-5A45F20ABBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFBCE01-31C1-2649-83E7-0D7B583B0387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="25600" windowHeight="14540" xr2:uid="{CC424A83-3C76-4743-A6B5-F176198D44FC}"/>
+    <workbookView xWindow="2540" yWindow="2880" windowWidth="25600" windowHeight="14540" xr2:uid="{CC424A83-3C76-4743-A6B5-F176198D44FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Iteraciones" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'Buscar Objetivo'!$F$10</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Iteraciones!$F$13</definedName>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">Solver!$A$1</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">Solver!$D$14</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
@@ -29,19 +29,19 @@
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Buscar Objetivo'!$F$10</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Iteraciones!$F$13</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">Solver!$D$14</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">Solver!$D$18</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Buscar Objetivo'!$F$10</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Iteraciones!$F$13</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">Solver!$D$14</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_lin" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
@@ -62,10 +62,10 @@
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'Buscar Objetivo'!$D$15</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Iteraciones!$H$13</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">Solver!$A$1</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">Solver!$D$15</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
@@ -74,13 +74,13 @@
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">'Buscar Objetivo'!$D$15</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">Iteraciones!$H$13</definedName>
-    <definedName name="solver_rhs1" localSheetId="2" hidden="1">Solver!$D$15</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">Solver!$D$17</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">'Buscar Objetivo'!$D$15</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">Iteraciones!$H$13</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">Solver!$D$15</definedName>
@@ -2083,9 +2083,18 @@
       <c r="F13" s="30">
         <v>0.9</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="33"/>
+      <c r="G13" s="28">
+        <f>1/(-2*LOG10(($D$12/3.7)+(2.51/($D$10*SQRT(F13)))))^2</f>
+        <v>1.8801956589130114E-2</v>
+      </c>
+      <c r="H13" s="32">
+        <f>ABS(F13-G13)</f>
+        <v>0.88119804341086994</v>
+      </c>
+      <c r="I13" s="33" t="b">
+        <f>H13&lt;=$C$14</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="36" t="s">
@@ -2094,34 +2103,94 @@
       <c r="C14" s="25">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="33"/>
+      <c r="F14" s="30">
+        <f>G13</f>
+        <v>1.8801956589130114E-2</v>
+      </c>
+      <c r="G14" s="28">
+        <f>1/(-2*LOG10(($D$12/3.7)+(2.51/($D$10*SQRT(F14)))))^2</f>
+        <v>1.9839275271524945E-2</v>
+      </c>
+      <c r="H14" s="32">
+        <f>ABS(F14-G14)</f>
+        <v>1.0373186823948305E-3</v>
+      </c>
+      <c r="I14" s="33" t="b">
+        <f>H14&lt;=$C$14</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F15" s="30"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="33"/>
+      <c r="F15" s="30">
+        <f>G14</f>
+        <v>1.9839275271524945E-2</v>
+      </c>
+      <c r="G15" s="28">
+        <f>1/(-2*LOG10(($D$12/3.7)+(2.51/($D$10*SQRT(F15)))))^2</f>
+        <v>1.980923153687951E-2</v>
+      </c>
+      <c r="H15" s="32">
+        <f>ABS(F15-G15)</f>
+        <v>3.0043734645435194E-5</v>
+      </c>
+      <c r="I15" s="33" t="b">
+        <f>H15&lt;=$C$14</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F16" s="30"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="33"/>
+      <c r="F16" s="30">
+        <f t="shared" ref="F16:F18" si="0">G15</f>
+        <v>1.980923153687951E-2</v>
+      </c>
+      <c r="G16" s="28">
+        <f t="shared" ref="G16:G18" si="1">1/(-2*LOG10(($D$12/3.7)+(2.51/($D$10*SQRT(F16)))))^2</f>
+        <v>1.9810069963364926E-2</v>
+      </c>
+      <c r="H16" s="32">
+        <f t="shared" ref="H16:H18" si="2">ABS(F16-G16)</f>
+        <v>8.3842648541596065E-7</v>
+      </c>
+      <c r="I16" s="33" t="b">
+        <f t="shared" ref="I16:I18" si="3">H16&lt;=$C$14</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F17" s="30"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="33"/>
+      <c r="F17" s="30">
+        <f t="shared" si="0"/>
+        <v>1.9810069963364926E-2</v>
+      </c>
+      <c r="G17" s="28">
+        <f t="shared" si="1"/>
+        <v>1.9810046540889092E-2</v>
+      </c>
+      <c r="H17" s="32">
+        <f t="shared" si="2"/>
+        <v>2.3422475833867473E-8</v>
+      </c>
+      <c r="I17" s="33" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F18" s="30"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="33"/>
+      <c r="F18" s="30">
+        <f t="shared" si="0"/>
+        <v>1.9810046540889092E-2</v>
+      </c>
+      <c r="G18" s="28">
+        <f t="shared" si="1"/>
+        <v>1.9810047195205571E-2</v>
+      </c>
+      <c r="H18" s="32">
+        <f t="shared" si="2"/>
+        <v>6.5431647947034044E-10</v>
+      </c>
+      <c r="I18" s="33" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2251,10 +2320,21 @@
         <f>D6*D5*D3/D7</f>
         <v>278468.89952153113</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="39"/>
+      <c r="F10" s="40">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="G10" s="41">
+        <f>1/SQRT(F10)</f>
+        <v>7.1066905451870142</v>
+      </c>
+      <c r="H10" s="42">
+        <f>-2*LOG10((D12/3.7)+(2.51/(D10*SQRT(F10))))</f>
+        <v>7.1048377963828466</v>
+      </c>
+      <c r="I10" s="39">
+        <f>ABS(G10-H10)</f>
+        <v>1.8527488041675255E-3</v>
+      </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="12" t="s">
@@ -2399,7 +2479,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="23">
-        <v>0.01</v>
+        <v>1.9761408328686069E-2</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
@@ -2409,7 +2489,10 @@
       <c r="C15" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="24"/>
+      <c r="D15" s="24">
+        <f>1/(-2*LOG10(($D$12/3.7)+(2.51/($D$10*SQRT(D14)))))^2</f>
+        <v>1.9811408310790764E-2</v>
+      </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="18" t="s">
@@ -2417,7 +2500,7 @@
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="22">
-        <v>5.0000000000000001E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
@@ -2427,7 +2510,7 @@
       <c r="C18" s="21"/>
       <c r="D18" s="11">
         <f>ABS(D14-D15)</f>
-        <v>0.01</v>
+        <v>4.9999982104694668E-5</v>
       </c>
     </row>
   </sheetData>
